--- a/test/gait/data/manual_gait_turn_results_apcwt.xlsx
+++ b/test/gait/data/manual_gait_turn_results_apcwt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/test/gaitv3/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/test/gait/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B0211F3C-1FC1-2E40-8385-892DAA88F79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93F0BFA-6AE3-144A-9601-BCE22E25AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32820" yWindow="880" windowWidth="29100" windowHeight="27180"/>
+    <workbookView xWindow="32820" yWindow="880" windowWidth="29100" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -676,7 +676,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -694,16 +694,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1016,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AI55" sqref="AI55"/>
+    <sheetView tabSelected="1" topLeftCell="P11" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1218,24 +1208,24 @@
         <v>0.4</v>
       </c>
       <c r="AB2">
-        <f>1.12 * AA2 * AA2 + 0.547 * AA2 + 0.066</f>
-        <v>0.46400000000000002</v>
+        <f>1.1 * AA2</f>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC2">
         <f>AB2*P2</f>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD2">
         <f>2 * SQRT(2 * P2 * N2 - N2 * N2) + 2 * SQRT(2 * AC2 * O2 - O2 * O2)</f>
-        <v>0.84625776083598436</v>
+        <v>0.83826470373507611</v>
       </c>
       <c r="AE2">
         <f>AD2+AD3</f>
-        <v>1.5814498671959638</v>
+        <v>1.5680608724367628</v>
       </c>
       <c r="AF2">
         <f>AE2/R2</f>
-        <v>1.3405667748416117</v>
+        <v>1.3292171633901035</v>
       </c>
       <c r="AG2">
         <f>60/Q2</f>
@@ -1334,24 +1324,24 @@
         <v>0.4</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB66" si="12">1.12 * AA3 * AA3 + 0.547 * AA3 + 0.066</f>
-        <v>0.46400000000000002</v>
+        <f t="shared" ref="AB3:AB66" si="12">1.1 * AA3</f>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC66" si="13">AB3*P3</f>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD66" si="14">2 * SQRT(2 * P3 * N3 - N3 * N3) + 2 * SQRT(2 * AC3 * O3 - O3 * O3)</f>
-        <v>0.73519210635997945</v>
+        <v>0.72979616870168684</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE66" si="15">AD3+AD4</f>
-        <v>1.4168109026218727</v>
+        <v>1.4067885244415872</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" si="16">AE3/R3</f>
-        <v>1.2953699681114266</v>
+        <v>1.2862066509180226</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG66" si="17">60/Q3</f>
@@ -1451,23 +1441,23 @@
       </c>
       <c r="AB4">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC4">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD4">
         <f t="shared" si="14"/>
-        <v>0.68161879626189315</v>
+        <v>0.67699235573990046</v>
       </c>
       <c r="AE4">
         <f t="shared" si="15"/>
-        <v>1.430662967892308</v>
+        <v>1.421339580383294</v>
       </c>
       <c r="AF4">
         <f t="shared" si="16"/>
-        <v>1.3269917383348944</v>
+        <v>1.3183439586163885</v>
       </c>
       <c r="AG4">
         <f t="shared" si="17"/>
@@ -1567,23 +1557,23 @@
       </c>
       <c r="AB5">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC5">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD5">
         <f t="shared" si="14"/>
-        <v>0.7490441716304147</v>
+        <v>0.74434722464339353</v>
       </c>
       <c r="AE5">
         <f t="shared" si="15"/>
-        <v>1.4782169050572191</v>
+        <v>1.4682692257342669</v>
       </c>
       <c r="AF5">
         <f t="shared" si="16"/>
-        <v>1.3811077653089348</v>
+        <v>1.3718135831677822</v>
       </c>
       <c r="AG5">
         <f t="shared" si="17"/>
@@ -1683,23 +1673,23 @@
       </c>
       <c r="AB6">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC6">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD6">
         <f t="shared" si="14"/>
-        <v>0.72917273342680455</v>
+        <v>0.72392200109087335</v>
       </c>
       <c r="AE6">
         <f t="shared" si="15"/>
-        <v>1.4200853548606278</v>
+        <v>1.4105334890080565</v>
       </c>
       <c r="AF6">
         <f t="shared" si="16"/>
-        <v>1.3267950760741631</v>
+        <v>1.3178707050586222</v>
       </c>
       <c r="AG6">
         <f t="shared" si="17"/>
@@ -1799,23 +1789,23 @@
       </c>
       <c r="AB7">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC7">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD7">
         <f t="shared" si="14"/>
-        <v>0.69091262143382337</v>
+        <v>0.68661148791718318</v>
       </c>
       <c r="AE7">
         <f t="shared" si="15"/>
-        <v>1.4135367841720092</v>
+        <v>1.4044207640636153</v>
       </c>
       <c r="AF7">
         <f t="shared" si="16"/>
-        <v>1.2923764883858371</v>
+        <v>1.2840418414295911</v>
       </c>
       <c r="AG7">
         <f t="shared" si="17"/>
@@ -1915,23 +1905,23 @@
       </c>
       <c r="AB8">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC8">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD8">
         <f t="shared" si="14"/>
-        <v>0.72262416273818575</v>
+        <v>0.71780927614643208</v>
       </c>
       <c r="AE8">
         <f t="shared" si="15"/>
-        <v>1.4681902881869151</v>
+        <v>1.4578263126141102</v>
       </c>
       <c r="AF8">
         <f t="shared" si="16"/>
-        <v>1.3141843139015743</v>
+        <v>1.3049074686336091</v>
       </c>
       <c r="AG8">
         <f t="shared" si="17"/>
@@ -2031,23 +2021,23 @@
       </c>
       <c r="AB9">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC9">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD9">
         <f t="shared" si="14"/>
-        <v>0.74556612544872924</v>
+        <v>0.74001703646767814</v>
       </c>
       <c r="AE9">
         <f t="shared" si="15"/>
-        <v>1.5206241647881604</v>
+        <v>1.5089956692420126</v>
       </c>
       <c r="AF9">
         <f t="shared" si="16"/>
-        <v>1.3151344127897604</v>
+        <v>1.3050773355606595</v>
       </c>
       <c r="AG9">
         <f t="shared" si="17"/>
@@ -2147,23 +2137,23 @@
       </c>
       <c r="AB10">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC10">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD10">
         <f t="shared" si="14"/>
-        <v>0.77505803933943118</v>
+        <v>0.76897863277433454</v>
       </c>
       <c r="AE10">
         <f t="shared" si="15"/>
-        <v>1.3876368528808172</v>
+        <v>1.3765992640600151</v>
       </c>
       <c r="AF10">
         <f t="shared" si="16"/>
-        <v>1.1241615010680037</v>
+        <v>1.1152196569600121</v>
       </c>
       <c r="AG10">
         <f t="shared" si="17"/>
@@ -2263,23 +2253,23 @@
       </c>
       <c r="AB11">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC11">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD11">
         <f t="shared" si="14"/>
-        <v>0.6125788135413861</v>
+        <v>0.60762063128568056</v>
       </c>
       <c r="AE11">
         <f t="shared" si="15"/>
-        <v>1.2711817086452466</v>
+        <v>1.2613075627266341</v>
       </c>
       <c r="AF11">
         <f t="shared" si="16"/>
-        <v>1.0775580046794144</v>
+        <v>1.0691878677417825</v>
       </c>
       <c r="AG11">
         <f t="shared" si="17"/>
@@ -2379,23 +2369,23 @@
       </c>
       <c r="AB12">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC12">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD12">
         <f t="shared" si="14"/>
-        <v>0.6586028951038605</v>
+        <v>0.65368693144095358</v>
       </c>
       <c r="AE12">
         <f t="shared" si="15"/>
-        <v>1.4675150028200363</v>
+        <v>1.4560842738172584</v>
       </c>
       <c r="AF12">
         <f t="shared" si="16"/>
-        <v>1.3417280025783189</v>
+        <v>1.3312770503472076</v>
       </c>
       <c r="AG12">
         <f t="shared" si="17"/>
@@ -2495,23 +2485,23 @@
       </c>
       <c r="AB13">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC13">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD13">
         <f t="shared" si="14"/>
-        <v>0.80891210771617572</v>
+        <v>0.80239734237630489</v>
       </c>
       <c r="AE13">
         <f t="shared" si="15"/>
-        <v>1.5624813585280544</v>
+        <v>1.5502181495055385</v>
       </c>
       <c r="AF13">
         <f t="shared" si="16"/>
-        <v>1.4285543849399354</v>
+        <v>1.4173423081193495</v>
       </c>
       <c r="AG13">
         <f t="shared" si="17"/>
@@ -2611,23 +2601,23 @@
       </c>
       <c r="AB14">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC14">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD14">
         <f t="shared" si="14"/>
-        <v>0.75356925081187875</v>
+        <v>0.7478208071292336</v>
       </c>
       <c r="AE14">
         <f t="shared" si="15"/>
-        <v>1.5453129735869773</v>
+        <v>1.5344728908925092</v>
       </c>
       <c r="AF14">
         <f t="shared" si="16"/>
-        <v>1.4333337726024138</v>
+        <v>1.4232792031466752</v>
       </c>
       <c r="AG14">
         <f t="shared" si="17"/>
@@ -2727,23 +2717,23 @@
       </c>
       <c r="AB15">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC15">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD15">
         <f t="shared" si="14"/>
-        <v>0.79174372277509852</v>
+        <v>0.78665208376327567</v>
       </c>
       <c r="AE15">
         <f t="shared" si="15"/>
-        <v>1.5617938552800794</v>
+        <v>1.5513477103195994</v>
       </c>
       <c r="AF15">
         <f t="shared" si="16"/>
-        <v>1.4591942589478115</v>
+        <v>1.449434357086925</v>
       </c>
       <c r="AG15">
         <f t="shared" si="17"/>
@@ -2843,23 +2833,23 @@
       </c>
       <c r="AB16">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC16">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD16">
         <f t="shared" si="14"/>
-        <v>0.770050132504981</v>
+        <v>0.76469562655632384</v>
       </c>
       <c r="AE16">
         <f t="shared" si="15"/>
-        <v>1.5099467214704507</v>
+        <v>1.49973288443665</v>
       </c>
       <c r="AF16">
         <f t="shared" si="16"/>
-        <v>1.4316531877645755</v>
+        <v>1.4219689570954903</v>
       </c>
       <c r="AG16">
         <f t="shared" si="17"/>
@@ -2959,23 +2949,23 @@
       </c>
       <c r="AB17">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC17">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD17">
         <f t="shared" si="14"/>
-        <v>0.73989658896546961</v>
+        <v>0.73503725788032603</v>
       </c>
       <c r="AE17">
         <f t="shared" si="15"/>
-        <v>1.4116801393404133</v>
+        <v>1.4019689446033583</v>
       </c>
       <c r="AF17">
         <f t="shared" si="16"/>
-        <v>1.3384819098931326</v>
+        <v>1.329274258586888</v>
       </c>
       <c r="AG17">
         <f t="shared" si="17"/>
@@ -3075,23 +3065,23 @@
       </c>
       <c r="AB18">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC18">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD18">
         <f t="shared" si="14"/>
-        <v>0.67178355037494364</v>
+        <v>0.66693168672303227</v>
       </c>
       <c r="AE18">
         <f t="shared" si="15"/>
-        <v>1.4665199448557069</v>
+        <v>1.4558702952657829</v>
       </c>
       <c r="AF18">
         <f t="shared" si="16"/>
-        <v>1.3408182352966462</v>
+        <v>1.3310814128144302</v>
       </c>
       <c r="AG18">
         <f t="shared" si="17"/>
@@ -3191,23 +3181,23 @@
       </c>
       <c r="AB19">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC19">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD19">
         <f t="shared" si="14"/>
-        <v>0.79473639448076339</v>
+        <v>0.78893860854275066</v>
       </c>
       <c r="AE19">
         <f t="shared" si="15"/>
-        <v>1.4711165381728222</v>
+        <v>1.4602254316741718</v>
       </c>
       <c r="AF19">
         <f t="shared" si="16"/>
-        <v>1.2809722237151104</v>
+        <v>1.2714888112537006</v>
       </c>
       <c r="AG19">
         <f t="shared" si="17"/>
@@ -3307,23 +3297,23 @@
       </c>
       <c r="AB20">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC20">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD20">
         <f t="shared" si="14"/>
-        <v>0.6763801436920589</v>
+        <v>0.67128682313142107</v>
       </c>
       <c r="AE20">
         <f t="shared" si="15"/>
-        <v>1.3905876246705655</v>
+        <v>1.3804088642202186</v>
       </c>
       <c r="AF20">
         <f t="shared" si="16"/>
-        <v>1.0853366826697097</v>
+        <v>1.0773922842694388</v>
       </c>
       <c r="AG20">
         <f t="shared" si="17"/>
@@ -3423,23 +3413,23 @@
       </c>
       <c r="AB21">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC21">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD21">
         <f t="shared" si="14"/>
-        <v>0.71420748097850661</v>
+        <v>0.70912204108879762</v>
       </c>
       <c r="AE21">
         <f t="shared" si="15"/>
-        <v>1.4078113447757916</v>
+        <v>1.3982076554074605</v>
       </c>
       <c r="AF21">
         <f t="shared" si="16"/>
-        <v>0.8833326084867712</v>
+        <v>0.87730676417723008</v>
       </c>
       <c r="AG21">
         <f t="shared" si="17"/>
@@ -3539,23 +3529,23 @@
       </c>
       <c r="AB22">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC22">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD22">
         <f t="shared" si="14"/>
-        <v>0.69360386379728511</v>
+        <v>0.689085614318663</v>
       </c>
       <c r="AE22">
         <f t="shared" si="15"/>
-        <v>1.2544202860590701</v>
+        <v>1.246930695314413</v>
       </c>
       <c r="AF22">
         <f t="shared" si="16"/>
-        <v>0.76459903150267128</v>
+        <v>0.7600339476202137</v>
       </c>
       <c r="AG22">
         <f t="shared" si="17"/>
@@ -3655,23 +3645,23 @@
       </c>
       <c r="AB23">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC23">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD23">
         <f t="shared" si="14"/>
-        <v>0.56081642226178496</v>
+        <v>0.55784508099575003</v>
       </c>
       <c r="AE23">
         <f t="shared" si="15"/>
-        <v>0.92007648783474927</v>
+        <v>0.91535468762468453</v>
       </c>
       <c r="AF23">
         <f t="shared" si="16"/>
-        <v>0.51653416860898205</v>
+        <v>0.5138833334033317</v>
       </c>
       <c r="AG23">
         <f t="shared" si="17"/>
@@ -3771,23 +3761,23 @@
       </c>
       <c r="AB24">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC24">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD24">
         <f t="shared" si="14"/>
-        <v>0.3592600655729643</v>
+        <v>0.3575096066289345</v>
       </c>
       <c r="AE24">
         <f t="shared" si="15"/>
-        <v>0.97750177979104425</v>
+        <v>0.97168574936568586</v>
       </c>
       <c r="AF24">
         <f t="shared" si="16"/>
-        <v>0.71908176904168775</v>
+        <v>0.71480330987820573</v>
       </c>
       <c r="AG24">
         <f t="shared" si="17"/>
@@ -3887,23 +3877,23 @@
       </c>
       <c r="AB25">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC25">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD25">
         <f t="shared" si="14"/>
-        <v>0.61824171421807994</v>
+        <v>0.61417614273675136</v>
       </c>
       <c r="AE25">
         <f t="shared" si="15"/>
-        <v>1.4694575968860555</v>
+        <v>1.4571818809886641</v>
       </c>
       <c r="AF25">
         <f t="shared" si="16"/>
-        <v>1.6355701947949139</v>
+        <v>1.6219067892743391</v>
       </c>
       <c r="AG25">
         <f t="shared" si="17"/>
@@ -4003,23 +3993,23 @@
       </c>
       <c r="AB26">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC26">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD26">
         <f t="shared" si="14"/>
-        <v>0.85121588266797565</v>
+        <v>0.84300573825191272</v>
       </c>
       <c r="AE26">
         <f t="shared" si="15"/>
-        <v>1.6152797315274814</v>
+        <v>1.6022556053130712</v>
       </c>
       <c r="AF26">
         <f t="shared" si="16"/>
-        <v>1.456026800250124</v>
+        <v>1.4442867428174162</v>
       </c>
       <c r="AG26">
         <f t="shared" si="17"/>
@@ -4119,23 +4109,23 @@
       </c>
       <c r="AB27">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC27">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD27">
         <f t="shared" si="14"/>
-        <v>0.76406384885950562</v>
+        <v>0.75924986706115849</v>
       </c>
       <c r="AE27">
         <f t="shared" si="15"/>
-        <v>1.4876729511809184</v>
+        <v>1.4777253090598939</v>
       </c>
       <c r="AF27">
         <f t="shared" si="16"/>
-        <v>1.3899426113223179</v>
+        <v>1.380648463939171</v>
       </c>
       <c r="AG27">
         <f t="shared" si="17"/>
@@ -4235,23 +4225,23 @@
       </c>
       <c r="AB28">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC28">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD28">
         <f t="shared" si="14"/>
-        <v>0.72360910232141273</v>
+        <v>0.71847544199873536</v>
       </c>
       <c r="AE28">
         <f t="shared" si="15"/>
-        <v>1.4868633469733707</v>
+        <v>1.4767568692485966</v>
       </c>
       <c r="AF28">
         <f t="shared" si="16"/>
-        <v>1.3994007971514077</v>
+        <v>1.3898888181163263</v>
       </c>
       <c r="AG28">
         <f t="shared" si="17"/>
@@ -4351,23 +4341,23 @@
       </c>
       <c r="AB29">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC29">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD29">
         <f t="shared" si="14"/>
-        <v>0.76325424465195801</v>
+        <v>0.75828142724986125</v>
       </c>
       <c r="AE29">
         <f t="shared" si="15"/>
-        <v>1.4939589808431446</v>
+        <v>1.4843752026277883</v>
       </c>
       <c r="AF29">
         <f t="shared" si="16"/>
-        <v>1.406079040793548</v>
+        <v>1.3970590142379185</v>
       </c>
       <c r="AG29">
         <f t="shared" si="17"/>
@@ -4467,23 +4457,23 @@
       </c>
       <c r="AB30">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC30">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD30">
         <f t="shared" si="14"/>
-        <v>0.7307047361911867</v>
+        <v>0.72609377537792708</v>
       </c>
       <c r="AE30">
         <f t="shared" si="15"/>
-        <v>1.5022327884957223</v>
+        <v>1.4921544689810031</v>
       </c>
       <c r="AF30">
         <f t="shared" si="16"/>
-        <v>1.4035459629741054</v>
+        <v>1.394129722843565</v>
       </c>
       <c r="AG30">
         <f t="shared" si="17"/>
@@ -4583,23 +4573,23 @@
       </c>
       <c r="AB31">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC31">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD31">
         <f t="shared" si="14"/>
-        <v>0.77152805230453569</v>
+        <v>0.76606069360307594</v>
       </c>
       <c r="AE31">
         <f t="shared" si="15"/>
-        <v>1.5252886753160051</v>
+        <v>1.5151186385184094</v>
       </c>
       <c r="AF31">
         <f t="shared" si="16"/>
-        <v>1.4045823772694148</v>
+        <v>1.3952171635277439</v>
       </c>
       <c r="AG31">
         <f t="shared" si="17"/>
@@ -4699,23 +4689,23 @@
       </c>
       <c r="AB32">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC32">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD32">
         <f t="shared" si="14"/>
-        <v>0.75376062301146929</v>
+        <v>0.7490579449153334</v>
       </c>
       <c r="AE32">
         <f t="shared" si="15"/>
-        <v>1.505037234258592</v>
+        <v>1.4952631460392434</v>
       </c>
       <c r="AF32">
         <f t="shared" si="16"/>
-        <v>1.3194846985280806</v>
+        <v>1.3109156348837203</v>
       </c>
       <c r="AG32">
         <f t="shared" si="17"/>
@@ -4815,23 +4805,23 @@
       </c>
       <c r="AB33">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC33">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD33">
         <f t="shared" si="14"/>
-        <v>0.75127661124712275</v>
+        <v>0.74620520112391009</v>
       </c>
       <c r="AE33">
         <f t="shared" si="15"/>
-        <v>1.4605343465746796</v>
+        <v>1.4496983784918835</v>
       </c>
       <c r="AF33">
         <f t="shared" si="16"/>
-        <v>1.2463226424103933</v>
+        <v>1.2370759496464072</v>
       </c>
       <c r="AG33">
         <f t="shared" si="17"/>
@@ -4931,23 +4921,23 @@
       </c>
       <c r="AB34">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC34">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD34">
         <f t="shared" si="14"/>
-        <v>0.70925773532755676</v>
+        <v>0.70349317736797345</v>
       </c>
       <c r="AE34">
         <f t="shared" si="15"/>
-        <v>1.3262826265593843</v>
+        <v>1.3142722459577363</v>
       </c>
       <c r="AF34">
         <f t="shared" si="16"/>
-        <v>1.0544358770161566</v>
+        <v>1.0448872514446599</v>
       </c>
       <c r="AG34">
         <f t="shared" si="17"/>
@@ -5047,23 +5037,23 @@
       </c>
       <c r="AB35">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC35">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD35">
         <f t="shared" si="14"/>
-        <v>0.61702489123182758</v>
+        <v>0.61077906858976272</v>
       </c>
       <c r="AE35">
         <f t="shared" si="15"/>
-        <v>1.2053341689021726</v>
+        <v>1.1955975241584818</v>
       </c>
       <c r="AF35">
         <f t="shared" si="16"/>
-        <v>0.95236280012023511</v>
+        <v>0.94466964871781278</v>
       </c>
       <c r="AG35">
         <f t="shared" si="17"/>
@@ -5163,23 +5153,23 @@
       </c>
       <c r="AB36">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC36">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD36">
         <f t="shared" si="14"/>
-        <v>0.58830927767034502</v>
+        <v>0.58481845556871914</v>
       </c>
       <c r="AE36">
         <f t="shared" si="15"/>
-        <v>1.3910771813340024</v>
+        <v>1.3806128017425228</v>
       </c>
       <c r="AF36">
         <f t="shared" si="16"/>
-        <v>1.1791912530513398</v>
+        <v>1.1703207855830657</v>
       </c>
       <c r="AG36">
         <f t="shared" si="17"/>
@@ -5279,23 +5269,23 @@
       </c>
       <c r="AB37">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC37">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD37">
         <f t="shared" si="14"/>
-        <v>0.80276790366365736</v>
+        <v>0.79579434617380373</v>
       </c>
       <c r="AE37">
         <f t="shared" si="15"/>
-        <v>1.5761961844407848</v>
+        <v>1.5622259583000411</v>
       </c>
       <c r="AF37">
         <f t="shared" si="16"/>
-        <v>1.4010632750584753</v>
+        <v>1.3886452962667031</v>
       </c>
       <c r="AG37">
         <f t="shared" si="17"/>
@@ -5395,23 +5385,23 @@
       </c>
       <c r="AB38">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC38">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD38">
         <f t="shared" si="14"/>
-        <v>0.77342828077712755</v>
+        <v>0.76643161212623734</v>
       </c>
       <c r="AE38">
         <f t="shared" si="15"/>
-        <v>1.5105653497571137</v>
+        <v>1.4986516301765911</v>
       </c>
       <c r="AF38">
         <f t="shared" si="16"/>
-        <v>1.411331129700077</v>
+        <v>1.4002000632306837</v>
       </c>
       <c r="AG38">
         <f t="shared" si="17"/>
@@ -5511,23 +5501,23 @@
       </c>
       <c r="AB39">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC39">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD39">
         <f t="shared" si="14"/>
-        <v>0.7371370689799861</v>
+        <v>0.73222001805035375</v>
       </c>
       <c r="AE39">
         <f t="shared" si="15"/>
-        <v>1.4233134647540513</v>
+        <v>1.4140286367302601</v>
       </c>
       <c r="AF39">
         <f t="shared" si="16"/>
-        <v>1.3395891432979306</v>
+        <v>1.3308504816284801</v>
       </c>
       <c r="AG39">
         <f t="shared" si="17"/>
@@ -5627,23 +5617,23 @@
       </c>
       <c r="AB40">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC40">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD40">
         <f t="shared" si="14"/>
-        <v>0.6861763957740652</v>
+        <v>0.68180861867990628</v>
       </c>
       <c r="AE40">
         <f t="shared" si="15"/>
-        <v>1.4472330630627031</v>
+        <v>1.4379529434759775</v>
       </c>
       <c r="AF40">
         <f t="shared" si="16"/>
-        <v>1.3521593581899707</v>
+        <v>1.3434888814958037</v>
       </c>
       <c r="AG40">
         <f t="shared" si="17"/>
@@ -5743,23 +5733,23 @@
       </c>
       <c r="AB41">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC41">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD41">
         <f t="shared" si="14"/>
-        <v>0.76105666728863786</v>
+        <v>0.75614432479607119</v>
       </c>
       <c r="AE41">
         <f t="shared" si="15"/>
-        <v>1.4419343079288378</v>
+        <v>1.4321824419772466</v>
       </c>
       <c r="AF41">
         <f t="shared" si="16"/>
-        <v>1.3571146427565532</v>
+        <v>1.3479364159785852</v>
       </c>
       <c r="AG41">
         <f t="shared" si="17"/>
@@ -5859,23 +5849,23 @@
       </c>
       <c r="AB42">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC42">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD42">
         <f t="shared" si="14"/>
-        <v>0.68087764064019984</v>
+        <v>0.67603811718117546</v>
       </c>
       <c r="AE42">
         <f t="shared" si="15"/>
-        <v>1.4394334217456559</v>
+        <v>1.428891677079297</v>
       </c>
       <c r="AF42">
         <f t="shared" si="16"/>
-        <v>1.3351266520539418</v>
+        <v>1.3253488019286233</v>
       </c>
       <c r="AG42">
         <f t="shared" si="17"/>
@@ -5975,23 +5965,23 @@
       </c>
       <c r="AB43">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC43">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD43">
         <f t="shared" si="14"/>
-        <v>0.75855578110545618</v>
+        <v>0.75285355989812153</v>
       </c>
       <c r="AE43">
         <f t="shared" si="15"/>
-        <v>1.4847822475142634</v>
+        <v>1.4735807362728361</v>
       </c>
       <c r="AF43">
         <f t="shared" si="16"/>
-        <v>1.2421707691622594</v>
+        <v>1.2327995702151833</v>
       </c>
       <c r="AG43">
         <f t="shared" si="17"/>
@@ -6091,23 +6081,23 @@
       </c>
       <c r="AB44">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC44">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD44">
         <f t="shared" si="14"/>
-        <v>0.72622646640880728</v>
+        <v>0.72072717637471451</v>
       </c>
       <c r="AE44">
         <f t="shared" si="15"/>
-        <v>1.4538876574194752</v>
+        <v>1.4444315076912715</v>
       </c>
       <c r="AF44">
         <f t="shared" si="16"/>
-        <v>1.0882901763139932</v>
+        <v>1.0812118887981448</v>
       </c>
       <c r="AG44">
         <f t="shared" si="17"/>
@@ -6207,23 +6197,23 @@
       </c>
       <c r="AB45">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC45">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD45">
         <f t="shared" si="14"/>
-        <v>0.72766119101066806</v>
+        <v>0.72370433131655709</v>
       </c>
       <c r="AE45">
         <f t="shared" si="15"/>
-        <v>1.0684476762531179</v>
+        <v>1.0613663235582864</v>
       </c>
       <c r="AF45">
         <f t="shared" si="16"/>
-        <v>0.93672125041369236</v>
+        <v>0.9305129412017854</v>
       </c>
       <c r="AG45">
         <f t="shared" si="17"/>
@@ -6323,23 +6313,23 @@
       </c>
       <c r="AB46">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC46">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD46">
         <f t="shared" si="14"/>
-        <v>0.34078648524244992</v>
+        <v>0.33766199224172927</v>
       </c>
       <c r="AE46">
         <f t="shared" si="15"/>
-        <v>0.70333781603976053</v>
+        <v>0.69667294949064607</v>
       </c>
       <c r="AF46">
         <f t="shared" si="16"/>
-        <v>0.73792820043515861</v>
+        <v>0.73093555356395656</v>
       </c>
       <c r="AG46">
         <f t="shared" si="17"/>
@@ -6439,23 +6429,23 @@
       </c>
       <c r="AB47">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC47">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD47">
         <f t="shared" si="14"/>
-        <v>0.36255133079731061</v>
+        <v>0.3590109572489168</v>
       </c>
       <c r="AE47">
         <f t="shared" si="15"/>
-        <v>0.82026911016909554</v>
+        <v>0.81357214904873032</v>
       </c>
       <c r="AF47">
         <f t="shared" si="16"/>
-        <v>0.65213941678039888</v>
+        <v>0.6468151247095496</v>
       </c>
       <c r="AG47">
         <f t="shared" si="17"/>
@@ -6555,23 +6545,23 @@
       </c>
       <c r="AB48">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC48">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD48">
         <f t="shared" si="14"/>
-        <v>0.45771777937178498</v>
+        <v>0.45456119179981352</v>
       </c>
       <c r="AE48">
         <f t="shared" si="15"/>
-        <v>1.0799317311268548</v>
+        <v>1.0735595675218932</v>
       </c>
       <c r="AF48">
         <f t="shared" si="16"/>
-        <v>0.98736615417312434</v>
+        <v>0.98154017602001664</v>
       </c>
       <c r="AG48">
         <f t="shared" si="17"/>
@@ -6671,23 +6661,23 @@
       </c>
       <c r="AB49">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC49">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD49">
         <f t="shared" si="14"/>
-        <v>0.62221395175506977</v>
+        <v>0.61899837572207961</v>
       </c>
       <c r="AE49">
         <f t="shared" si="15"/>
-        <v>1.445283604804346</v>
+        <v>1.4351370688121325</v>
       </c>
       <c r="AF49">
         <f t="shared" si="16"/>
-        <v>1.5040349708533032</v>
+        <v>1.493475974048398</v>
       </c>
       <c r="AG49">
         <f t="shared" si="17"/>
@@ -6787,23 +6777,23 @@
       </c>
       <c r="AB50">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC50">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD50">
         <f t="shared" si="14"/>
-        <v>0.82306965304927637</v>
+        <v>0.81613869309005305</v>
       </c>
       <c r="AE50">
         <f t="shared" si="15"/>
-        <v>1.6018987975994663</v>
+        <v>1.5885766438355846</v>
       </c>
       <c r="AF50">
         <f t="shared" si="16"/>
-        <v>1.3948506536920522</v>
+        <v>1.3832504109588764</v>
       </c>
       <c r="AG50">
         <f t="shared" si="17"/>
@@ -6903,23 +6893,23 @@
       </c>
       <c r="AB51">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC51">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD51">
         <f t="shared" si="14"/>
-        <v>0.77882914455018981</v>
+        <v>0.77243795074553145</v>
       </c>
       <c r="AE51">
         <f t="shared" si="15"/>
-        <v>1.5537259452325887</v>
+        <v>1.5422176947095889</v>
       </c>
       <c r="AF51">
         <f t="shared" si="16"/>
-        <v>1.47316237770201</v>
+        <v>1.4622508512802028</v>
       </c>
       <c r="AG51">
         <f t="shared" si="17"/>
@@ -7019,23 +7009,23 @@
       </c>
       <c r="AB52">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC52">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD52">
         <f t="shared" si="14"/>
-        <v>0.77489680068239897</v>
+        <v>0.76977974396405735</v>
       </c>
       <c r="AE52">
         <f t="shared" si="15"/>
-        <v>1.5445245033083772</v>
+        <v>1.5343287829838892</v>
       </c>
       <c r="AF52">
         <f t="shared" si="16"/>
-        <v>1.4864596723569345</v>
+        <v>1.4766472497890062</v>
       </c>
       <c r="AG52">
         <f t="shared" si="17"/>
@@ -7135,23 +7125,23 @@
       </c>
       <c r="AB53">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC53">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD53">
         <f t="shared" si="14"/>
-        <v>0.76962770262597824</v>
+        <v>0.76454903901983196</v>
       </c>
       <c r="AE53">
         <f t="shared" si="15"/>
-        <v>1.520177957850346</v>
+        <v>1.5100833418132664</v>
       </c>
       <c r="AF53">
         <f t="shared" si="16"/>
-        <v>1.452110288095853</v>
+        <v>1.4424676697917769</v>
       </c>
       <c r="AG53">
         <f t="shared" si="17"/>
@@ -7251,23 +7241,23 @@
       </c>
       <c r="AB54">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC54">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD54">
         <f t="shared" si="14"/>
-        <v>0.75055025522436791</v>
+        <v>0.74553430279343458</v>
       </c>
       <c r="AE54">
         <f t="shared" si="15"/>
-        <v>1.4831351601366387</v>
+        <v>1.4734915415502834</v>
       </c>
       <c r="AF54">
         <f t="shared" si="16"/>
-        <v>1.4167261231155952</v>
+        <v>1.4075143083465393</v>
       </c>
       <c r="AG54">
         <f t="shared" si="17"/>
@@ -7367,23 +7357,23 @@
       </c>
       <c r="AB55">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC55">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD55">
         <f t="shared" si="14"/>
-        <v>0.7325849049122708</v>
+        <v>0.7279572387568487</v>
       </c>
       <c r="AE55">
         <f t="shared" si="15"/>
-        <v>1.4605608395838869</v>
+        <v>1.4511497949255088</v>
       </c>
       <c r="AF55">
         <f t="shared" si="16"/>
-        <v>1.3547230975850546</v>
+        <v>1.3459940126845298</v>
       </c>
       <c r="AG55">
         <f t="shared" si="17"/>
@@ -7483,23 +7473,23 @@
       </c>
       <c r="AB56">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC56">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD56">
         <f t="shared" si="14"/>
-        <v>0.72797593467161614</v>
+        <v>0.72319255616866007</v>
       </c>
       <c r="AE56">
         <f t="shared" si="15"/>
-        <v>1.4869917340769994</v>
+        <v>1.4763281619112729</v>
       </c>
       <c r="AF56">
         <f t="shared" si="16"/>
-        <v>1.3310135801528387</v>
+        <v>1.3214685645079924</v>
       </c>
       <c r="AG56">
         <f t="shared" si="17"/>
@@ -7599,23 +7589,23 @@
       </c>
       <c r="AB57">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC57">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD57">
         <f t="shared" si="14"/>
-        <v>0.75901579940538333</v>
+        <v>0.75313560574261296</v>
       </c>
       <c r="AE57">
         <f t="shared" si="15"/>
-        <v>1.6558496061371493</v>
+        <v>1.6415702026835408</v>
       </c>
       <c r="AF57">
         <f t="shared" si="16"/>
-        <v>1.4129916639037008</v>
+        <v>1.4008065729566215</v>
       </c>
       <c r="AG57">
         <f t="shared" si="17"/>
@@ -7715,23 +7705,23 @@
       </c>
       <c r="AB58">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC58">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD58">
         <f t="shared" si="14"/>
-        <v>0.89683380673176583</v>
+        <v>0.88843459694092797</v>
       </c>
       <c r="AE58">
         <f t="shared" si="15"/>
-        <v>1.4530060520474781</v>
+        <v>1.4398638591640089</v>
       </c>
       <c r="AF58">
         <f t="shared" si="16"/>
-        <v>1.1480541645807234</v>
+        <v>1.1376702097098341</v>
       </c>
       <c r="AG58">
         <f t="shared" si="17"/>
@@ -7831,23 +7821,23 @@
       </c>
       <c r="AB59">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC59">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD59">
         <f t="shared" si="14"/>
-        <v>0.5561722453157123</v>
+        <v>0.55142926222308097</v>
       </c>
       <c r="AE59">
         <f t="shared" si="15"/>
-        <v>1.2917499767990774</v>
+        <v>1.2809129292785155</v>
       </c>
       <c r="AF59">
         <f t="shared" si="16"/>
-        <v>0.98419045851358278</v>
+        <v>0.97593366040267848</v>
       </c>
       <c r="AG59">
         <f t="shared" si="17"/>
@@ -7947,23 +7937,23 @@
       </c>
       <c r="AB60">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC60">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD60">
         <f t="shared" si="14"/>
-        <v>0.73557773148336525</v>
+        <v>0.72948366705543455</v>
       </c>
       <c r="AE60">
         <f t="shared" si="15"/>
-        <v>1.5166902015073191</v>
+        <v>1.5035686560276846</v>
       </c>
       <c r="AF60">
         <f t="shared" si="16"/>
-        <v>1.2209833068738167</v>
+        <v>1.2104200501354945</v>
       </c>
       <c r="AG60">
         <f t="shared" si="17"/>
@@ -8063,23 +8053,23 @@
       </c>
       <c r="AB61">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC61">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD61">
         <f t="shared" si="14"/>
-        <v>0.7811124700239539</v>
+        <v>0.77408498897225009</v>
       </c>
       <c r="AE61">
         <f t="shared" si="15"/>
-        <v>1.4365262802912366</v>
+        <v>1.4253535945298523</v>
       </c>
       <c r="AF61">
         <f t="shared" si="16"/>
-        <v>1.268105957774333</v>
+        <v>1.2582431731022146</v>
       </c>
       <c r="AG61">
         <f t="shared" si="17"/>
@@ -8179,23 +8169,23 @@
       </c>
       <c r="AB62">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC62">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD62">
         <f t="shared" si="14"/>
-        <v>0.65541381026728274</v>
+        <v>0.65126860555760224</v>
       </c>
       <c r="AE62">
         <f t="shared" si="15"/>
-        <v>1.4509692173088629</v>
+        <v>1.4417090027261155</v>
       </c>
       <c r="AF62">
         <f t="shared" si="16"/>
-        <v>1.2897504153856558</v>
+        <v>1.2815191135343249</v>
       </c>
       <c r="AG62">
         <f t="shared" si="17"/>
@@ -8295,23 +8285,23 @@
       </c>
       <c r="AB63">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC63">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD63">
         <f t="shared" si="14"/>
-        <v>0.79555540704158012</v>
+        <v>0.79044039716851322</v>
       </c>
       <c r="AE63">
         <f t="shared" si="15"/>
-        <v>1.4842385671368263</v>
+        <v>1.4743325988796152</v>
       </c>
       <c r="AF63">
         <f t="shared" si="16"/>
-        <v>1.3570181185250985</v>
+        <v>1.3479612332613624</v>
       </c>
       <c r="AG63">
         <f t="shared" si="17"/>
@@ -8411,23 +8401,23 @@
       </c>
       <c r="AB64">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC64">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD64">
         <f t="shared" si="14"/>
-        <v>0.68868316009524611</v>
+        <v>0.68389220171110199</v>
       </c>
       <c r="AE64">
         <f t="shared" si="15"/>
-        <v>1.4914846973332794</v>
+        <v>1.4807615806568308</v>
       </c>
       <c r="AF64">
         <f t="shared" si="16"/>
-        <v>1.4037503033724983</v>
+        <v>1.3936579582652526</v>
       </c>
       <c r="AG64">
         <f t="shared" si="17"/>
@@ -8527,23 +8517,23 @@
       </c>
       <c r="AB65">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC65">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD65">
         <f t="shared" si="14"/>
-        <v>0.80280153723803316</v>
+        <v>0.79686937894572896</v>
       </c>
       <c r="AE65">
         <f t="shared" si="15"/>
-        <v>1.478308205510364</v>
+        <v>1.4678705703560389</v>
       </c>
       <c r="AF65">
         <f t="shared" si="16"/>
-        <v>1.3811930679220918</v>
+        <v>1.3714411168289997</v>
       </c>
       <c r="AG65">
         <f t="shared" si="17"/>
@@ -8643,23 +8633,23 @@
       </c>
       <c r="AB66">
         <f t="shared" si="12"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC66">
         <f t="shared" si="13"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD66">
         <f t="shared" si="14"/>
-        <v>0.67550666827233086</v>
+        <v>0.67100119141030989</v>
       </c>
       <c r="AE66">
         <f t="shared" si="15"/>
-        <v>1.4583446118072887</v>
+        <v>1.4482999635012415</v>
       </c>
       <c r="AF66">
         <f t="shared" si="16"/>
-        <v>1.342936045405273</v>
+        <v>1.3336862973248842</v>
       </c>
       <c r="AG66">
         <f t="shared" si="17"/>
@@ -8726,7 +8716,7 @@
         <v>0.7109375</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T69" si="22">(I67-G67)/128</f>
+        <f t="shared" ref="T67" si="22">(I67-G67)/128</f>
         <v>0.4453125</v>
       </c>
       <c r="U67">
@@ -8734,15 +8724,15 @@
         <v>0.15625</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V69" si="24">(G67-H67)/128</f>
+        <f t="shared" ref="V67:V68" si="24">(G67-H67)/128</f>
         <v>0.1484375</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W69" si="25">U67+V67</f>
+        <f t="shared" ref="W67:W68" si="25">U67+V67</f>
         <v>0.3046875</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X69" si="26">(H67-F67)/128</f>
+        <f t="shared" ref="X67:X68" si="26">(H67-F67)/128</f>
         <v>0.40625</v>
       </c>
       <c r="Y67">
@@ -8758,24 +8748,24 @@
         <v>0.4</v>
       </c>
       <c r="AB67">
-        <f t="shared" ref="AB67:AB68" si="30">1.12 * AA67 * AA67 + 0.547 * AA67 + 0.066</f>
-        <v>0.46400000000000002</v>
+        <f t="shared" ref="AB67:AB68" si="30">1.1 * AA67</f>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC67">
         <f t="shared" ref="AC67:AC68" si="31">AB67*P67</f>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD67">
         <f t="shared" ref="AD67:AD68" si="32">2 * SQRT(2 * P67 * N67 - N67 * N67) + 2 * SQRT(2 * AC67 * O67 - O67 * O67)</f>
-        <v>0.78283794353495773</v>
+        <v>0.77729877209093168</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE68" si="33">AD67+AD68</f>
-        <v>1.531639196182865</v>
+        <f t="shared" ref="AE67" si="33">AD67+AD68</f>
+        <v>1.5203674305695529</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF68" si="34">AE67/R67</f>
-        <v>1.3246609264284239</v>
+        <f t="shared" ref="AF67" si="34">AE67/R67</f>
+        <v>1.3149123723844782</v>
       </c>
       <c r="AG67">
         <f t="shared" ref="AG67:AG68" si="35">60/Q67</f>
@@ -8867,15 +8857,15 @@
       </c>
       <c r="AB68">
         <f t="shared" si="30"/>
-        <v>0.46400000000000002</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="AC68">
         <f t="shared" si="31"/>
-        <v>0.46232960000000001</v>
+        <v>0.43841600000000003</v>
       </c>
       <c r="AD68">
         <f t="shared" si="32"/>
-        <v>0.74880125264790731</v>
+        <v>0.74306865847862125</v>
       </c>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
@@ -8950,11 +8940,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
